--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>97.85</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.30</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,933 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2626</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009470</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方欣利混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009471</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方欣利混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1981,17 +1982,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2001,14 +2022,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.53</v>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7198</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2017,14 +2060,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2033,14 +2098,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2049,13 +2136,757 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0987</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2785,7 +2786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2796,17 +2797,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2816,14 +2837,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.07</v>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2832,14 +2875,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.53</v>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2848,14 +2913,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.47</v>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2864,14 +2951,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2880,13 +2989,1003 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012237</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501072</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国金标普中国A股低波红利指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,1024 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6896</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1570</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>001648</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.30</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012237</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +1670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +1691,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -695,36 +1721,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>160916</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>大成优选混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.04</t>
+          <t>16.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>89.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1816</t>
+          <t>0.7198</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -733,36 +1759,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010375</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合A</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>93.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1034</t>
+          <t>0.3198</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -771,36 +1797,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>7.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>89.20</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0546</t>
+          <t>0.2040</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -809,36 +1835,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>010738</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>大成优选升级一年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.2005</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -847,36 +1873,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>519013</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>海富通风格优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.28</t>
+          <t>89.46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.1414</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -885,36 +1911,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>000030</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>长城核心优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.73</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0240</t>
+          <t>0.1033</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -923,36 +1949,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010376</t>
+          <t>010375</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合C</t>
+          <t>国金鑫悦经济新动能混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.37</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0987</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -961,36 +1987,490 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003175</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞多策略灵活配置混合</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>80.70</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0429</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002136</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发鑫源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +3452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1993,7 +3473,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2023,36 +3503,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160916</t>
+          <t>481017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成优选混合(LOF)</t>
+          <t>工银量化策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.14</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.35</t>
+          <t>93.87</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7198</t>
+          <t>0.1816</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2061,36 +3541,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>010375</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>国金鑫悦经济新动能混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3198</t>
+          <t>0.1034</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2099,36 +3579,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>481017</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银量化策略混合</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.21</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.20</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2040</t>
+          <t>0.0546</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2137,36 +3617,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010738</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成优选升级一年持有期混合A</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>73.73</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2005</t>
+          <t>0.0491</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2175,36 +3655,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519013</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通风格优势混合</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1414</t>
+          <t>0.0314</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2213,36 +3693,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000030</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城核心优选灵活配置混合</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>73.73</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1033</t>
+          <t>0.0240</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -2251,36 +3731,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010375</t>
+          <t>010376</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国金鑫悦经济新动能混合A</t>
+          <t>国金鑫悦经济新动能混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.93</t>
+          <t>90.37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0987</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2289,490 +3769,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001648</t>
+          <t>003175</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信新价值灵活配置混合</t>
+          <t>华泰柏瑞多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80.70</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0429</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0379</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银瑞信新机遇灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0325</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002004</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>工银瑞信新机遇灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.77</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.24</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010376</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0214</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.23</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002135</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>广发鑫源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>26.98</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0059</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010739</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>大成优选升级一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002136</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发鑫源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>26.98</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2786,7 +3812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2807,7 +3833,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2837,1024 +3863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011220</t>
+          <t>001648</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方匠心优选股票A</t>
+          <t>工银瑞信新价值灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.91</t>
+          <t>89.30</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.6896</t>
+          <t>0.0362</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001044</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实新消费股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>85.44</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5252</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4188</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004357</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方智慧精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2430</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006921</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方智诚混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2406</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000574</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1997</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005810</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1570</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003715</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>宝盈消费主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.98</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1521</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
         <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1386</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>481017</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>工银量化策略混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1131</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>011221</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方匠心优选股票C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>89.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0960</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010375</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0760</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0589</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>011384</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>南方远见回报股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0545</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009130</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.21</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>010376</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>国金鑫悦经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0205</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>011765</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005811</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方瑞祥一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.63</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>011385</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方远见回报股票C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>011766</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>兴银高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009131</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏扬景恒六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.40</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.77</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>77.38</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007574</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>宝盈新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.26</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>012241</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>工银量化策略混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>012237</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>77.38</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3868,128 +3906,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.53</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
-        <v>4.35</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>2.07</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>3.53</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>0.47</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -583,6 +600,2110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3033</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9533</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>070010</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实主题精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6883</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5557</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5334</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3525</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3507</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3222</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004477</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实沪港深回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2427</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2041</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008682</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证红利指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1439</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1022</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010375</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014818</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013439</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014819</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国金新兴价值混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010376</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国金鑫悦经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013440</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实产业优势混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>35.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>015589</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>38.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1664,7 +3785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2478,7 +4599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3446,7 +5567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3806,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3900,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002003-伟星股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>10.54</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>4.35</v>
+        <v>10.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>2.07</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>3.53</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0.47</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -600,6 +617,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7162</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5919</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001044</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实新消费股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5596</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010446</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金福三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000574</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003715</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈消费主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011645</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2801</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008174</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2250</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009223</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1733</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1506</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007574</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012308</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008175</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国泰蓝筹精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008303</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009224</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011646</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰核心价值两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006675</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008304</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈龙头优选股票C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银新价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006676</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈品牌消费股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012309</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰价值远见两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012237</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015589</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2703,7 +4102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3785,7 +5184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4599,7 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5567,7 +6966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5927,7 +7326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6021,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
